--- a/data/kindergarten-readiness.xlsx
+++ b/data/kindergarten-readiness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Documents/Work/projects/rin3-spring-2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{358CADC7-F592-AB48-9EAF-1CB5941F9502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D42D79-7F24-B842-97B5-31E3AEAA023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="37520" windowHeight="21100" xr2:uid="{B264BB6E-95E9-B24C-A542-094C6F332CD2}"/>
   </bookViews>
